--- a/GATEWAY/A1#111#DECSISTEMISRLX1/DEC_Sistemi_Srl/LABNET/1.4/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DECSISTEMISRLX1/DEC_Sistemi_Srl/LABNET/1.4/report-checklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="536">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1972,9 +1972,6 @@
     <t>impossibilità di ricreare il caso specifico</t>
   </si>
   <si>
-    <t>altro (specificare)</t>
-  </si>
-  <si>
     <t>2024-11-20T12:57:21.970+01:00</t>
   </si>
   <si>
@@ -1996,7 +1993,7 @@
     <t>L'errore è stato procurato eliminando forzatamente il codice confidentialityCode (l'applicativo non consente di farlo). Risoluzione possibile rigenerando il PDF o contattando assistenza tecnica</t>
   </si>
   <si>
-    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
+    <t>Non Gestiamo Laboratori di Analisi che effettuano Trasfusioni</t>
   </si>
 </sst>
 </file>
@@ -2006,11 +2003,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2728,376 +2732,376 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4542,10 +4546,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A197" sqref="A197:XFD197"/>
+      <selection pane="bottomRight" activeCell="J197" sqref="J197:L197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4588,14 +4592,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="80" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="124" t="s">
         <v>520</v>
       </c>
-      <c r="D2" s="81"/>
+      <c r="D2" s="125"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4616,14 +4620,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="79" t="s">
+      <c r="B3" s="127"/>
+      <c r="C3" s="132" t="s">
         <v>502</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="123"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4644,12 +4648,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="79" t="s">
+      <c r="A4" s="128"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="132" t="s">
         <v>503</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4671,12 +4675,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79" t="s">
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132" t="s">
         <v>504</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="123"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4697,8 +4701,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5068,2079 +5072,2057 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="94" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A15" s="96">
+    <row r="15" spans="1:23" s="80" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A15" s="82">
         <v>6</v>
       </c>
-      <c r="B15" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="97" t="s">
+      <c r="B15" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="84" t="s">
         <v>400</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="104" t="s">
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="94" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A16" s="96">
+    <row r="16" spans="1:23" s="80" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A16" s="82">
         <v>7</v>
       </c>
-      <c r="B16" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="97" t="s">
+      <c r="B16" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="84" t="s">
         <v>401</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="104" t="s">
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="94" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="96">
+    <row r="17" spans="1:23" s="80" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A17" s="82">
         <v>8</v>
       </c>
-      <c r="B17" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="104" t="s">
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="94" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A18" s="96">
+    <row r="18" spans="1:23" s="80" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A18" s="82">
         <v>9</v>
       </c>
-      <c r="B18" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="97" t="s">
+      <c r="B18" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="104" t="s">
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="94" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="96">
+    <row r="19" spans="1:23" s="80" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A19" s="82">
         <v>16</v>
       </c>
-      <c r="B19" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="97" t="s">
+      <c r="B19" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="104" t="s">
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="94" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A20" s="96">
+    <row r="20" spans="1:23" s="80" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A20" s="82">
         <v>17</v>
       </c>
-      <c r="B20" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="104" t="s">
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="94" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A21" s="96">
+    <row r="21" spans="1:23" s="80" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A21" s="82">
         <v>18</v>
       </c>
-      <c r="B21" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="97" t="s">
+      <c r="B21" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="104" t="s">
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="94" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A22" s="96">
+    <row r="22" spans="1:23" s="80" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A22" s="82">
         <v>19</v>
       </c>
-      <c r="B22" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="97" t="s">
+      <c r="B22" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="84" t="s">
         <v>407</v>
       </c>
-      <c r="F22" s="99"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="104" t="s">
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="94" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A23" s="96">
+    <row r="23" spans="1:23" s="80" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A23" s="82">
         <v>20</v>
       </c>
-      <c r="B23" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="E23" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="104" t="s">
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="94" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A24" s="96">
+    <row r="24" spans="1:23" s="80" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A24" s="82">
         <v>21</v>
       </c>
-      <c r="B24" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="97" t="s">
+      <c r="B24" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="104" t="s">
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="94" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A25" s="96">
+    <row r="25" spans="1:23" s="80" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A25" s="82">
         <v>22</v>
       </c>
-      <c r="B25" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="97" t="s">
+      <c r="B25" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="84" t="s">
         <v>410</v>
       </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="104" t="s">
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="94" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A26" s="96">
+    <row r="26" spans="1:23" s="80" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A26" s="82">
         <v>23</v>
       </c>
-      <c r="B26" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="97" t="s">
+      <c r="B26" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="104" t="s">
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="94" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A27" s="96">
+    <row r="27" spans="1:23" s="80" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A27" s="82">
         <v>24</v>
       </c>
-      <c r="B27" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="97" t="s">
+      <c r="B27" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="84" t="s">
         <v>412</v>
       </c>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="104" t="s">
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="94" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A28" s="96">
+    <row r="28" spans="1:23" s="80" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A28" s="82">
         <v>25</v>
       </c>
-      <c r="B28" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="97" t="s">
+      <c r="B28" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="84" t="s">
         <v>413</v>
       </c>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="104" t="s">
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="90" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="94" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="96">
+    <row r="29" spans="1:23" s="80" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A29" s="82">
         <v>26</v>
       </c>
-      <c r="B29" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="97" t="s">
+      <c r="B29" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="84" t="s">
         <v>414</v>
       </c>
-      <c r="F29" s="99"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="104" t="s">
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="90" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A30" s="96">
+      <c r="A30" s="82">
         <v>27</v>
       </c>
-      <c r="B30" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="97" t="s">
+      <c r="B30" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="84" t="s">
         <v>415</v>
       </c>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="104" t="s">
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="90" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A31" s="85">
+      <c r="A31" s="71">
         <v>28</v>
       </c>
-      <c r="B31" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="86" t="s">
+      <c r="B31" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="87" t="s">
+      <c r="E31" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="74">
         <v>45616</v>
       </c>
-      <c r="G31" s="89" t="s">
+      <c r="G31" s="75" t="s">
         <v>521</v>
       </c>
-      <c r="H31" s="89" t="s">
+      <c r="H31" s="75" t="s">
         <v>522</v>
       </c>
-      <c r="I31" s="89"/>
-      <c r="J31" s="90" t="s">
+      <c r="I31" s="75"/>
+      <c r="J31" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90" t="s">
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N31" s="90" t="s">
+      <c r="N31" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="O31" s="90" t="s">
+      <c r="O31" s="76" t="s">
         <v>523</v>
       </c>
-      <c r="P31" s="90" t="s">
+      <c r="P31" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="Q31" s="90" t="s">
+      <c r="Q31" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="R31" s="90" t="s">
+      <c r="R31" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="S31" s="90" t="s">
+      <c r="S31" s="76" t="s">
+        <v>532</v>
+      </c>
+      <c r="T31" s="76"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A32" s="92">
+        <v>29</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="95"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A33" s="92">
+        <v>30</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="95"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A34" s="92">
+        <v>31</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="95"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="98"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A35" s="92">
+        <v>32</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="95"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
+      <c r="S35" s="97"/>
+      <c r="T35" s="97"/>
+      <c r="U35" s="98"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A36" s="92">
+        <v>33</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="97"/>
+      <c r="T36" s="97"/>
+      <c r="U36" s="98"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A37" s="92">
+        <v>34</v>
+      </c>
+      <c r="B37" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="95"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="97"/>
+      <c r="U37" s="98"/>
+      <c r="V37" s="99"/>
+      <c r="W37" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A38" s="92">
+        <v>35</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="95"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="97"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="99"/>
+      <c r="W38" s="100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="51" customHeight="1" thickBot="1">
+      <c r="A39" s="71">
+        <v>36</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="74">
+        <v>45616</v>
+      </c>
+      <c r="G39" s="75" t="s">
+        <v>524</v>
+      </c>
+      <c r="H39" s="75" t="s">
+        <v>525</v>
+      </c>
+      <c r="I39" s="75"/>
+      <c r="J39" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="N39" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="O39" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="P39" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q39" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="R39" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="S39" s="76" t="s">
         <v>533</v>
       </c>
-      <c r="T31" s="90"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="93" t="s">
+      <c r="T39" s="76"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A32" s="106">
-        <v>29</v>
-      </c>
-      <c r="B32" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="107" t="s">
+    <row r="40" spans="1:23" s="91" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A40" s="102">
+        <v>37</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="114" t="s">
+      <c r="D40" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="105"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="108"/>
+      <c r="V40" s="109"/>
+      <c r="W40" s="110" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="106">
-        <v>30</v>
-      </c>
-      <c r="B33" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="107" t="s">
+    <row r="41" spans="1:23" s="91" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A41" s="102">
+        <v>38</v>
+      </c>
+      <c r="B41" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="109"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="114" t="s">
+      <c r="D41" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="105"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="108"/>
+      <c r="V41" s="109"/>
+      <c r="W41" s="110" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A34" s="106">
-        <v>31</v>
-      </c>
-      <c r="B34" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="107" t="s">
+    <row r="42" spans="1:23" s="91" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A42" s="102">
+        <v>39</v>
+      </c>
+      <c r="B42" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="114" t="s">
+      <c r="D42" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="105"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="108"/>
+      <c r="V42" s="109"/>
+      <c r="W42" s="110" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A35" s="106">
-        <v>32</v>
-      </c>
-      <c r="B35" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="107" t="s">
+    <row r="43" spans="1:23" s="91" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A43" s="102">
+        <v>40</v>
+      </c>
+      <c r="B43" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="109"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="114" t="s">
+      <c r="D43" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="105"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="108"/>
+      <c r="V43" s="109"/>
+      <c r="W43" s="110" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A36" s="106">
-        <v>33</v>
-      </c>
-      <c r="B36" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="107" t="s">
+    <row r="44" spans="1:23" s="91" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A44" s="102">
+        <v>41</v>
+      </c>
+      <c r="B44" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="109"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="112"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="114" t="s">
+      <c r="D44" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="105"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="107"/>
+      <c r="U44" s="108"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="110" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="106">
-        <v>34</v>
-      </c>
-      <c r="B37" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="107" t="s">
+    <row r="45" spans="1:23" s="91" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A45" s="102">
+        <v>42</v>
+      </c>
+      <c r="B45" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="109"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="113"/>
-      <c r="W37" s="114" t="s">
+      <c r="D45" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="105"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="107"/>
+      <c r="U45" s="108"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="110" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A38" s="106">
+    <row r="46" spans="1:23" s="91" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A46" s="102">
+        <v>43</v>
+      </c>
+      <c r="B46" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="105"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="107"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="107"/>
+      <c r="P46" s="107"/>
+      <c r="Q46" s="107"/>
+      <c r="R46" s="107"/>
+      <c r="S46" s="107"/>
+      <c r="T46" s="107"/>
+      <c r="U46" s="108"/>
+      <c r="V46" s="109"/>
+      <c r="W46" s="110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A47" s="71">
+        <v>44</v>
+      </c>
+      <c r="B47" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="107" t="s">
+      <c r="D47" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="K47" s="133" t="s">
+        <v>318</v>
+      </c>
+      <c r="L47" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="V47" s="78"/>
+      <c r="W47" s="79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" s="101" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A48" s="111">
+        <v>45</v>
+      </c>
+      <c r="B48" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="F48" s="114"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="116"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="116"/>
+      <c r="O48" s="116"/>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="116"/>
+      <c r="R48" s="116"/>
+      <c r="S48" s="116"/>
+      <c r="T48" s="116"/>
+      <c r="U48" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="V48" s="118"/>
+      <c r="W48" s="119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="101" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A49" s="111">
+        <v>46</v>
+      </c>
+      <c r="B49" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="F49" s="114"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="116"/>
+      <c r="O49" s="116"/>
+      <c r="P49" s="116"/>
+      <c r="Q49" s="116"/>
+      <c r="R49" s="116"/>
+      <c r="S49" s="116"/>
+      <c r="T49" s="116"/>
+      <c r="U49" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="V49" s="118"/>
+      <c r="W49" s="119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="101" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A50" s="111">
+        <v>47</v>
+      </c>
+      <c r="B50" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="F50" s="114"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="116"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="116"/>
+      <c r="O50" s="116"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="116"/>
+      <c r="S50" s="116"/>
+      <c r="T50" s="116"/>
+      <c r="U50" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="V50" s="118"/>
+      <c r="W50" s="119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="101" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A51" s="111">
+        <v>48</v>
+      </c>
+      <c r="B51" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="F51" s="114"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="116"/>
+      <c r="N51" s="116"/>
+      <c r="O51" s="116"/>
+      <c r="P51" s="116"/>
+      <c r="Q51" s="116"/>
+      <c r="R51" s="116"/>
+      <c r="S51" s="116"/>
+      <c r="T51" s="116"/>
+      <c r="U51" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="V51" s="118"/>
+      <c r="W51" s="119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="101" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A52" s="111">
+        <v>49</v>
+      </c>
+      <c r="B52" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="F52" s="114"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="116"/>
+      <c r="N52" s="116"/>
+      <c r="O52" s="116"/>
+      <c r="P52" s="116"/>
+      <c r="Q52" s="116"/>
+      <c r="R52" s="116"/>
+      <c r="S52" s="116"/>
+      <c r="T52" s="116"/>
+      <c r="U52" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="V52" s="118"/>
+      <c r="W52" s="119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" s="101" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A53" s="111">
+        <v>50</v>
+      </c>
+      <c r="B53" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="F53" s="114"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="116"/>
+      <c r="S53" s="116"/>
+      <c r="T53" s="116"/>
+      <c r="U53" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="V53" s="118"/>
+      <c r="W53" s="119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" s="101" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A54" s="111">
+        <v>51</v>
+      </c>
+      <c r="B54" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="112"/>
-      <c r="V38" s="113"/>
-      <c r="W38" s="114" t="s">
+      <c r="D54" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="F54" s="114"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="116"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="116"/>
+      <c r="S54" s="116"/>
+      <c r="T54" s="116"/>
+      <c r="U54" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="V54" s="118"/>
+      <c r="W54" s="119" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="51" customHeight="1" thickBot="1">
-      <c r="A39" s="85">
-        <v>36</v>
-      </c>
-      <c r="B39" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="86" t="s">
+    <row r="55" spans="1:23" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A55" s="71">
+        <v>52</v>
+      </c>
+      <c r="B55" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G39" s="89" t="s">
-        <v>524</v>
-      </c>
-      <c r="H39" s="89" t="s">
-        <v>525</v>
-      </c>
-      <c r="I39" s="89"/>
-      <c r="J39" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="N39" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="O39" s="90" t="s">
-        <v>526</v>
-      </c>
-      <c r="P39" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q39" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="R39" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="S39" s="90" t="s">
-        <v>534</v>
-      </c>
-      <c r="T39" s="90"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="93" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A40" s="116">
-        <v>37</v>
-      </c>
-      <c r="B40" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="119"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="121"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="121"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="121"/>
-      <c r="P40" s="121"/>
-      <c r="Q40" s="121"/>
-      <c r="R40" s="121"/>
-      <c r="S40" s="121"/>
-      <c r="T40" s="121"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="123"/>
-      <c r="W40" s="124" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="105" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A41" s="116">
-        <v>38</v>
-      </c>
-      <c r="B41" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="119"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="121"/>
-      <c r="O41" s="121"/>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="121"/>
-      <c r="R41" s="121"/>
-      <c r="S41" s="121"/>
-      <c r="T41" s="121"/>
-      <c r="U41" s="122"/>
-      <c r="V41" s="123"/>
-      <c r="W41" s="124" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A42" s="116">
-        <v>39</v>
-      </c>
-      <c r="B42" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="119"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="121"/>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="121"/>
-      <c r="R42" s="121"/>
-      <c r="S42" s="121"/>
-      <c r="T42" s="121"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="123"/>
-      <c r="W42" s="124" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A43" s="116">
-        <v>40</v>
-      </c>
-      <c r="B43" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="119"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="123"/>
-      <c r="W43" s="124" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" s="105" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A44" s="116">
-        <v>41</v>
-      </c>
-      <c r="B44" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="117" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="119"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="121"/>
-      <c r="R44" s="121"/>
-      <c r="S44" s="121"/>
-      <c r="T44" s="121"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="123"/>
-      <c r="W44" s="124" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" s="105" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A45" s="116">
-        <v>42</v>
-      </c>
-      <c r="B45" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="119"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="121"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="121"/>
-      <c r="R45" s="121"/>
-      <c r="S45" s="121"/>
-      <c r="T45" s="121"/>
-      <c r="U45" s="122"/>
-      <c r="V45" s="123"/>
-      <c r="W45" s="124" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" s="105" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A46" s="116">
-        <v>43</v>
-      </c>
-      <c r="B46" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="117" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="117" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="121"/>
-      <c r="L46" s="121"/>
-      <c r="M46" s="121"/>
-      <c r="N46" s="121"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="121"/>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="121"/>
-      <c r="S46" s="121"/>
-      <c r="T46" s="121"/>
-      <c r="U46" s="122"/>
-      <c r="V46" s="123"/>
-      <c r="W46" s="124" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A47" s="85">
-        <v>44</v>
-      </c>
-      <c r="B47" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="87" t="s">
-        <v>319</v>
-      </c>
-      <c r="F47" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="K47" s="82" t="s">
-        <v>528</v>
-      </c>
-      <c r="L47" s="90" t="s">
-        <v>527</v>
-      </c>
-      <c r="M47" s="90"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="90"/>
-      <c r="U47" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="V47" s="92"/>
-      <c r="W47" s="93" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" s="115" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A48" s="125">
-        <v>45</v>
-      </c>
-      <c r="B48" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="127" t="s">
-        <v>319</v>
-      </c>
-      <c r="F48" s="128"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="130"/>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="130"/>
-      <c r="S48" s="130"/>
-      <c r="T48" s="130"/>
-      <c r="U48" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="V48" s="132"/>
-      <c r="W48" s="133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" s="115" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A49" s="125">
-        <v>46</v>
-      </c>
-      <c r="B49" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="127" t="s">
-        <v>319</v>
-      </c>
-      <c r="F49" s="128"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="130"/>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="130"/>
-      <c r="S49" s="130"/>
-      <c r="T49" s="130"/>
-      <c r="U49" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="V49" s="132"/>
-      <c r="W49" s="133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" s="115" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A50" s="125">
-        <v>47</v>
-      </c>
-      <c r="B50" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="126" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="127" t="s">
-        <v>319</v>
-      </c>
-      <c r="F50" s="128"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="130"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="130"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="130"/>
-      <c r="Q50" s="130"/>
-      <c r="R50" s="130"/>
-      <c r="S50" s="130"/>
-      <c r="T50" s="130"/>
-      <c r="U50" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="V50" s="132"/>
-      <c r="W50" s="133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" s="115" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A51" s="125">
-        <v>48</v>
-      </c>
-      <c r="B51" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="126" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="126" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="127" t="s">
-        <v>319</v>
-      </c>
-      <c r="F51" s="128"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="130"/>
-      <c r="L51" s="130"/>
-      <c r="M51" s="130"/>
-      <c r="N51" s="130"/>
-      <c r="O51" s="130"/>
-      <c r="P51" s="130"/>
-      <c r="Q51" s="130"/>
-      <c r="R51" s="130"/>
-      <c r="S51" s="130"/>
-      <c r="T51" s="130"/>
-      <c r="U51" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="V51" s="132"/>
-      <c r="W51" s="133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" s="115" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A52" s="125">
-        <v>49</v>
-      </c>
-      <c r="B52" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="126" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="127" t="s">
-        <v>319</v>
-      </c>
-      <c r="F52" s="128"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="130"/>
-      <c r="P52" s="130"/>
-      <c r="Q52" s="130"/>
-      <c r="R52" s="130"/>
-      <c r="S52" s="130"/>
-      <c r="T52" s="130"/>
-      <c r="U52" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="V52" s="132"/>
-      <c r="W52" s="133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" s="115" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A53" s="125">
-        <v>50</v>
-      </c>
-      <c r="B53" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="126" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="127" t="s">
-        <v>319</v>
-      </c>
-      <c r="F53" s="128"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="130"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="130"/>
-      <c r="S53" s="130"/>
-      <c r="T53" s="130"/>
-      <c r="U53" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="V53" s="132"/>
-      <c r="W53" s="133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" s="115" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A54" s="125">
-        <v>51</v>
-      </c>
-      <c r="B54" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="126" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="127" t="s">
-        <v>319</v>
-      </c>
-      <c r="F54" s="128"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="130"/>
-      <c r="K54" s="130"/>
-      <c r="L54" s="130"/>
-      <c r="M54" s="130"/>
-      <c r="N54" s="130"/>
-      <c r="O54" s="130"/>
-      <c r="P54" s="130"/>
-      <c r="Q54" s="130"/>
-      <c r="R54" s="130"/>
-      <c r="S54" s="130"/>
-      <c r="T54" s="130"/>
-      <c r="U54" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="V54" s="132"/>
-      <c r="W54" s="133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A55" s="85">
-        <v>52</v>
-      </c>
-      <c r="B55" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="86" t="s">
+      <c r="D55" s="72" t="s">
         <v>95</v>
       </c>
       <c r="E55" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="88">
+      <c r="F55" s="74">
         <v>45616</v>
       </c>
-      <c r="G55" s="89" t="s">
+      <c r="G55" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="H55" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="I55" s="75" t="s">
+        <v>530</v>
+      </c>
+      <c r="J55" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="N55" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="O55" s="69" t="s">
         <v>529</v>
       </c>
-      <c r="H55" s="89" t="s">
-        <v>532</v>
-      </c>
-      <c r="I55" s="89" t="s">
-        <v>531</v>
-      </c>
-      <c r="J55" s="90" t="s">
+      <c r="P55" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q55" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="R55" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="N55" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="O55" s="83" t="s">
-        <v>530</v>
-      </c>
-      <c r="P55" s="90" t="s">
+      <c r="S55" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="T55" s="76"/>
+      <c r="U55" s="77"/>
+      <c r="V55" s="78"/>
+      <c r="W55" s="79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A56" s="71">
+        <v>53</v>
+      </c>
+      <c r="B56" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="74"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="Q55" s="90" t="s">
+      <c r="K56" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="77"/>
+      <c r="V56" s="78"/>
+      <c r="W56" s="79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A57" s="71">
+        <v>54</v>
+      </c>
+      <c r="B57" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="74"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="R55" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="S55" s="90" t="s">
-        <v>535</v>
-      </c>
-      <c r="T55" s="90"/>
-      <c r="U55" s="91"/>
-      <c r="V55" s="92"/>
-      <c r="W55" s="93" t="s">
+      <c r="K57" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="78"/>
+      <c r="W57" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A56" s="85">
-        <v>53</v>
-      </c>
-      <c r="B56" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="86" t="s">
+    <row r="58" spans="1:23" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A58" s="71">
+        <v>55</v>
+      </c>
+      <c r="B58" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="89" t="s">
+      <c r="D58" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="74"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="K56" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="L56" s="90"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="90"/>
-      <c r="O56" s="90"/>
-      <c r="P56" s="90"/>
-      <c r="Q56" s="90"/>
-      <c r="R56" s="90"/>
-      <c r="S56" s="90"/>
-      <c r="T56" s="90"/>
-      <c r="U56" s="91"/>
-      <c r="V56" s="92"/>
-      <c r="W56" s="93" t="s">
+      <c r="K58" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="76"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="77"/>
+      <c r="V58" s="78"/>
+      <c r="W58" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A57" s="85">
-        <v>54</v>
-      </c>
-      <c r="B57" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="86" t="s">
+    <row r="59" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A59" s="71">
+        <v>56</v>
+      </c>
+      <c r="B59" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="90" t="s">
+      <c r="D59" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="K57" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="L57" s="90"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="90"/>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="90"/>
-      <c r="U57" s="91"/>
-      <c r="V57" s="92"/>
-      <c r="W57" s="93" t="s">
+      <c r="K59" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="76"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="76"/>
+      <c r="S59" s="76"/>
+      <c r="T59" s="76"/>
+      <c r="U59" s="77"/>
+      <c r="V59" s="78"/>
+      <c r="W59" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A58" s="85">
-        <v>55</v>
-      </c>
-      <c r="B58" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="86" t="s">
+    <row r="60" spans="1:23" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A60" s="71">
+        <v>57</v>
+      </c>
+      <c r="B60" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="F58" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="J58" s="90" t="s">
+      <c r="D60" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="74"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="K58" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="L58" s="90"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="90"/>
-      <c r="Q58" s="90"/>
-      <c r="R58" s="90"/>
-      <c r="S58" s="90"/>
-      <c r="T58" s="90"/>
-      <c r="U58" s="91"/>
-      <c r="V58" s="92"/>
-      <c r="W58" s="93" t="s">
+      <c r="K60" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="77"/>
+      <c r="V60" s="78"/>
+      <c r="W60" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A59" s="85">
-        <v>56</v>
-      </c>
-      <c r="B59" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="86" t="s">
+    <row r="61" spans="1:23" ht="30" customHeight="1" thickBot="1">
+      <c r="A61" s="71">
+        <v>58</v>
+      </c>
+      <c r="B61" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="90" t="s">
+      <c r="D61" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="74"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="K59" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="L59" s="90"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="90"/>
-      <c r="O59" s="90"/>
-      <c r="P59" s="90"/>
-      <c r="Q59" s="90"/>
-      <c r="R59" s="90"/>
-      <c r="S59" s="90"/>
-      <c r="T59" s="90"/>
-      <c r="U59" s="91"/>
-      <c r="V59" s="92"/>
-      <c r="W59" s="93" t="s">
+      <c r="K61" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="76"/>
+      <c r="O61" s="76"/>
+      <c r="P61" s="76"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="76"/>
+      <c r="S61" s="76"/>
+      <c r="T61" s="76"/>
+      <c r="U61" s="77"/>
+      <c r="V61" s="78"/>
+      <c r="W61" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A60" s="85">
-        <v>57</v>
-      </c>
-      <c r="B60" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="86" t="s">
+    <row r="62" spans="1:23" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A62" s="71">
+        <v>59</v>
+      </c>
+      <c r="B62" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="89"/>
-      <c r="J60" s="90" t="s">
+      <c r="D62" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="74"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="K60" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="L60" s="90"/>
-      <c r="M60" s="90"/>
-      <c r="N60" s="90"/>
-      <c r="O60" s="90"/>
-      <c r="P60" s="90"/>
-      <c r="Q60" s="90"/>
-      <c r="R60" s="90"/>
-      <c r="S60" s="90"/>
-      <c r="T60" s="90"/>
-      <c r="U60" s="91"/>
-      <c r="V60" s="92"/>
-      <c r="W60" s="93" t="s">
+      <c r="K62" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="76"/>
+      <c r="O62" s="76"/>
+      <c r="P62" s="76"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="76"/>
+      <c r="S62" s="76"/>
+      <c r="T62" s="76"/>
+      <c r="U62" s="77"/>
+      <c r="V62" s="78"/>
+      <c r="W62" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="30" customHeight="1" thickBot="1">
-      <c r="A61" s="85">
-        <v>58</v>
-      </c>
-      <c r="B61" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="86" t="s">
+    <row r="63" spans="1:23" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A63" s="71">
+        <v>60</v>
+      </c>
+      <c r="B63" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="90" t="s">
+      <c r="D63" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="74"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="K61" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="L61" s="90"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
-      <c r="P61" s="90"/>
-      <c r="Q61" s="90"/>
-      <c r="R61" s="90"/>
-      <c r="S61" s="90"/>
-      <c r="T61" s="90"/>
-      <c r="U61" s="91"/>
-      <c r="V61" s="92"/>
-      <c r="W61" s="93" t="s">
+      <c r="K63" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="76"/>
+      <c r="O63" s="76"/>
+      <c r="P63" s="76"/>
+      <c r="Q63" s="76"/>
+      <c r="R63" s="76"/>
+      <c r="S63" s="76"/>
+      <c r="T63" s="76"/>
+      <c r="U63" s="77"/>
+      <c r="V63" s="78"/>
+      <c r="W63" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A62" s="85">
-        <v>59</v>
-      </c>
-      <c r="B62" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="86" t="s">
+    <row r="64" spans="1:23" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A64" s="71">
+        <v>61</v>
+      </c>
+      <c r="B64" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="90" t="s">
+      <c r="D64" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="74"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="K62" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="L62" s="90"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="90"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="90"/>
-      <c r="S62" s="90"/>
-      <c r="T62" s="90"/>
-      <c r="U62" s="91"/>
-      <c r="V62" s="92"/>
-      <c r="W62" s="93" t="s">
+      <c r="K64" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="L64" s="76"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="76"/>
+      <c r="O64" s="76"/>
+      <c r="P64" s="76"/>
+      <c r="Q64" s="76"/>
+      <c r="R64" s="76"/>
+      <c r="S64" s="76"/>
+      <c r="T64" s="76"/>
+      <c r="U64" s="77"/>
+      <c r="V64" s="78"/>
+      <c r="W64" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A63" s="85">
-        <v>60</v>
-      </c>
-      <c r="B63" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="86" t="s">
+    <row r="65" spans="1:23" ht="33" customHeight="1" thickBot="1">
+      <c r="A65" s="71">
+        <v>62</v>
+      </c>
+      <c r="B65" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="90" t="s">
+      <c r="D65" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="74"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="K63" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="90"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
-      <c r="Q63" s="90"/>
-      <c r="R63" s="90"/>
-      <c r="S63" s="90"/>
-      <c r="T63" s="90"/>
-      <c r="U63" s="91"/>
-      <c r="V63" s="92"/>
-      <c r="W63" s="93" t="s">
+      <c r="K65" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="L65" s="76"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="76"/>
+      <c r="O65" s="76"/>
+      <c r="P65" s="76"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="76"/>
+      <c r="S65" s="76"/>
+      <c r="T65" s="76"/>
+      <c r="U65" s="77"/>
+      <c r="V65" s="78"/>
+      <c r="W65" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A64" s="85">
-        <v>61</v>
-      </c>
-      <c r="B64" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="F64" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="K64" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="90"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="90"/>
-      <c r="T64" s="90"/>
-      <c r="U64" s="91"/>
-      <c r="V64" s="92"/>
-      <c r="W64" s="93" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="33" customHeight="1" thickBot="1">
-      <c r="A65" s="85">
-        <v>62</v>
-      </c>
-      <c r="B65" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="88">
-        <v>45616</v>
-      </c>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="K65" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="L65" s="90"/>
-      <c r="M65" s="90"/>
-      <c r="N65" s="90"/>
-      <c r="O65" s="90"/>
-      <c r="P65" s="90"/>
-      <c r="Q65" s="90"/>
-      <c r="R65" s="90"/>
-      <c r="S65" s="90"/>
-      <c r="T65" s="90"/>
-      <c r="U65" s="91"/>
-      <c r="V65" s="92"/>
-      <c r="W65" s="93" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
-      <c r="A66" s="85">
+      <c r="A66" s="71">
         <v>63</v>
       </c>
-      <c r="B66" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="86" t="s">
+      <c r="B66" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="86" t="s">
+      <c r="D66" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="E66" s="87" t="s">
+      <c r="E66" s="73" t="s">
         <v>416</v>
       </c>
-      <c r="F66" s="88"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="90"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="90"/>
-      <c r="M66" s="90"/>
-      <c r="N66" s="90"/>
-      <c r="O66" s="90"/>
-      <c r="P66" s="90"/>
-      <c r="Q66" s="90"/>
-      <c r="R66" s="90"/>
-      <c r="S66" s="90"/>
-      <c r="T66" s="90"/>
-      <c r="U66" s="91"/>
-      <c r="V66" s="92"/>
-      <c r="W66" s="93" t="s">
+      <c r="F66" s="74"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="76"/>
+      <c r="L66" s="76"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="76"/>
+      <c r="O66" s="76"/>
+      <c r="P66" s="76"/>
+      <c r="Q66" s="76"/>
+      <c r="R66" s="76"/>
+      <c r="S66" s="76"/>
+      <c r="T66" s="76"/>
+      <c r="U66" s="77"/>
+      <c r="V66" s="78"/>
+      <c r="W66" s="79" t="s">
         <v>67</v>
       </c>
     </row>
@@ -11695,7 +11677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="190" spans="1:23" ht="29.25" customHeight="1" thickBot="1">
       <c r="A190" s="29">
         <v>191</v>
       </c>
@@ -11715,9 +11697,15 @@
       <c r="G190" s="33"/>
       <c r="H190" s="33"/>
       <c r="I190" s="33"/>
-      <c r="J190" s="34"/>
-      <c r="K190" s="34"/>
-      <c r="L190" s="34"/>
+      <c r="J190" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="K190" s="133" t="s">
+        <v>318</v>
+      </c>
+      <c r="L190" s="116" t="s">
+        <v>535</v>
+      </c>
       <c r="M190" s="34"/>
       <c r="N190" s="34"/>
       <c r="O190" s="34"/>
@@ -11732,7 +11720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="191" spans="1:23" ht="31.5" customHeight="1" thickBot="1">
       <c r="A191" s="29">
         <v>368</v>
       </c>
@@ -11752,9 +11740,15 @@
       <c r="G191" s="33"/>
       <c r="H191" s="33"/>
       <c r="I191" s="33"/>
-      <c r="J191" s="34"/>
-      <c r="K191" s="34"/>
-      <c r="L191" s="34"/>
+      <c r="J191" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="K191" s="133" t="s">
+        <v>318</v>
+      </c>
+      <c r="L191" s="116" t="s">
+        <v>535</v>
+      </c>
       <c r="M191" s="34"/>
       <c r="N191" s="34"/>
       <c r="O191" s="34"/>
@@ -11954,7 +11948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="11.25" customHeight="1" thickBot="1">
+    <row r="197" spans="1:23" ht="31.5" customHeight="1" thickBot="1">
       <c r="A197" s="40">
         <v>376</v>
       </c>
@@ -11974,9 +11968,15 @@
       <c r="G197" s="44"/>
       <c r="H197" s="44"/>
       <c r="I197" s="44"/>
-      <c r="J197" s="45"/>
-      <c r="K197" s="45"/>
-      <c r="L197" s="45"/>
+      <c r="J197" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="K197" s="133" t="s">
+        <v>318</v>
+      </c>
+      <c r="L197" s="116" t="s">
+        <v>535</v>
+      </c>
       <c r="M197" s="45"/>
       <c r="N197" s="45"/>
       <c r="O197" s="45"/>
@@ -17629,7 +17629,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19874,27 +19874,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20152,32 +20131,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20194,4 +20169,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#DECSISTEMISRLX1/DEC_Sistemi_Srl/LABNET/1.4/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DECSISTEMISRLX1/DEC_Sistemi_Srl/LABNET/1.4/report-checklist.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="538">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1994,6 +1994,12 @@
   </si>
   <si>
     <t>Non Gestiamo Laboratori di Analisi che effettuano Trasfusioni</t>
+  </si>
+  <si>
+    <t>Mancata risposta dal server. Verificare la connessione internet e, se presente, riprovare più tardi.</t>
+  </si>
+  <si>
+    <t>Il/i referto/i rimane/gono pronto/i per un secondo o più tentativi di invio manuale/i da parte dell'operatore sino alla riuscita della/e operazione/i.</t>
   </si>
 </sst>
 </file>
@@ -3075,6 +3081,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3099,9 +3108,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4546,10 +4552,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J197" sqref="J197:L197"/>
+      <selection pane="bottomRight" activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4592,14 +4598,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="124" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="125" t="s">
         <v>520</v>
       </c>
-      <c r="D2" s="125"/>
+      <c r="D2" s="126"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4620,14 +4626,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="133" t="s">
         <v>502</v>
       </c>
-      <c r="D3" s="123"/>
+      <c r="D3" s="124"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4648,12 +4654,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A4" s="128"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="132" t="s">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="133" t="s">
         <v>503</v>
       </c>
-      <c r="D4" s="123"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4675,12 +4681,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="132" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133" t="s">
         <v>504</v>
       </c>
-      <c r="D5" s="123"/>
+      <c r="D5" s="124"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4701,8 +4707,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -6300,7 +6306,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="34.5" customHeight="1" thickBot="1">
+    <row r="47" spans="1:23" ht="88.5" customHeight="1" thickBot="1">
       <c r="A47" s="71">
         <v>44</v>
       </c>
@@ -6313,7 +6319,7 @@
       <c r="D47" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="113" t="s">
         <v>319</v>
       </c>
       <c r="F47" s="74"/>
@@ -6323,19 +6329,33 @@
       <c r="J47" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="K47" s="133" t="s">
+      <c r="K47" s="120" t="s">
         <v>318</v>
       </c>
       <c r="L47" s="76" t="s">
         <v>527</v>
       </c>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
+      <c r="M47" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="N47" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="O47" s="116" t="s">
+        <v>536</v>
+      </c>
+      <c r="P47" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q47" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="R47" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="S47" s="116" t="s">
+        <v>537</v>
+      </c>
       <c r="T47" s="76"/>
       <c r="U47" s="77" t="s">
         <v>87</v>
@@ -11700,7 +11720,7 @@
       <c r="J190" s="116" t="s">
         <v>307</v>
       </c>
-      <c r="K190" s="133" t="s">
+      <c r="K190" s="120" t="s">
         <v>318</v>
       </c>
       <c r="L190" s="116" t="s">
@@ -11743,7 +11763,7 @@
       <c r="J191" s="116" t="s">
         <v>307</v>
       </c>
-      <c r="K191" s="133" t="s">
+      <c r="K191" s="120" t="s">
         <v>318</v>
       </c>
       <c r="L191" s="116" t="s">
@@ -11971,7 +11991,7 @@
       <c r="J197" s="116" t="s">
         <v>307</v>
       </c>
-      <c r="K197" s="133" t="s">
+      <c r="K197" s="120" t="s">
         <v>318</v>
       </c>
       <c r="L197" s="116" t="s">
@@ -19874,6 +19894,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20131,28 +20172,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20169,29 +20214,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#DECSISTEMISRLX1/DEC_Sistemi_Srl/LABNET/1.4/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DECSISTEMISRLX1/DEC_Sistemi_Srl/LABNET/1.4/report-checklist.xlsx
@@ -1921,15 +1921,6 @@
     <t>f95a8b9b4c768ef4</t>
   </si>
   <si>
-    <t>2024-11-15T17:03:06.262+01:00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855.78b6a197f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3ae97fd77d98d249</t>
-  </si>
-  <si>
     <t>2024-11-19T16:47:23.905+01:00</t>
   </si>
   <si>
@@ -2000,6 +1991,15 @@
   </si>
   <si>
     <t>Il/i referto/i rimane/gono pronto/i per un secondo o più tentativi di invio manuale/i da parte dell'operatore sino alla riuscita della/e operazione/i.</t>
+  </si>
+  <si>
+    <t>2024-12-10T10:42:20.205+01:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855.808d31b775^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>30480bc953fb8f1a</t>
   </si>
 </sst>
 </file>
@@ -4552,10 +4552,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="T47" sqref="T47"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B2" s="124"/>
       <c r="C2" s="125" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D2" s="126"/>
       <c r="F2" s="6"/>
@@ -4957,13 +4957,13 @@
         <v>45615</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>87</v>
@@ -5001,16 +5001,16 @@
         <v>398</v>
       </c>
       <c r="F13" s="32">
-        <v>45611</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>512</v>
+        <v>45636</v>
+      </c>
+      <c r="G13" s="115" t="s">
+        <v>535</v>
+      </c>
+      <c r="H13" s="115" t="s">
+        <v>537</v>
+      </c>
+      <c r="I13" s="115" t="s">
+        <v>536</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>87</v>
@@ -5051,13 +5051,13 @@
         <v>45615</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>87</v>
@@ -5690,10 +5690,10 @@
         <v>45616</v>
       </c>
       <c r="G31" s="75" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H31" s="75" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I31" s="75"/>
       <c r="J31" s="76" t="s">
@@ -5708,7 +5708,7 @@
         <v>87</v>
       </c>
       <c r="O31" s="76" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P31" s="76" t="s">
         <v>307</v>
@@ -5720,7 +5720,7 @@
         <v>87</v>
       </c>
       <c r="S31" s="76" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="T31" s="76"/>
       <c r="U31" s="77"/>
@@ -6008,10 +6008,10 @@
         <v>45616</v>
       </c>
       <c r="G39" s="75" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H39" s="75" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I39" s="75"/>
       <c r="J39" s="76" t="s">
@@ -6026,7 +6026,7 @@
         <v>87</v>
       </c>
       <c r="O39" s="76" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P39" s="76" t="s">
         <v>307</v>
@@ -6038,7 +6038,7 @@
         <v>87</v>
       </c>
       <c r="S39" s="76" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="T39" s="76"/>
       <c r="U39" s="77"/>
@@ -6333,7 +6333,7 @@
         <v>318</v>
       </c>
       <c r="L47" s="76" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M47" s="116" t="s">
         <v>87</v>
@@ -6342,7 +6342,7 @@
         <v>87</v>
       </c>
       <c r="O47" s="116" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P47" s="116" t="s">
         <v>307</v>
@@ -6354,7 +6354,7 @@
         <v>87</v>
       </c>
       <c r="S47" s="116" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="T47" s="76"/>
       <c r="U47" s="77" t="s">
@@ -6658,13 +6658,13 @@
         <v>45616</v>
       </c>
       <c r="G55" s="75" t="s">
+        <v>525</v>
+      </c>
+      <c r="H55" s="75" t="s">
         <v>528</v>
       </c>
-      <c r="H55" s="75" t="s">
-        <v>531</v>
-      </c>
       <c r="I55" s="75" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J55" s="76" t="s">
         <v>87</v>
@@ -6678,7 +6678,7 @@
         <v>87</v>
       </c>
       <c r="O55" s="69" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P55" s="76" t="s">
         <v>307</v>
@@ -6690,7 +6690,7 @@
         <v>87</v>
       </c>
       <c r="S55" s="76" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T55" s="76"/>
       <c r="U55" s="77"/>
@@ -11724,7 +11724,7 @@
         <v>318</v>
       </c>
       <c r="L190" s="116" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M190" s="34"/>
       <c r="N190" s="34"/>
@@ -11767,7 +11767,7 @@
         <v>318</v>
       </c>
       <c r="L191" s="116" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M191" s="34"/>
       <c r="N191" s="34"/>
@@ -11995,7 +11995,7 @@
         <v>318</v>
       </c>
       <c r="L197" s="116" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M197" s="45"/>
       <c r="N197" s="45"/>
@@ -19894,27 +19894,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20172,32 +20151,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20214,4 +20189,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>